--- a/ChildAlertSystem/ModuleTesting/CHILDALERT_AWS_IOT_MODULE_TEST_PLAN.xlsx
+++ b/ChildAlertSystem/ModuleTesting/CHILDALERT_AWS_IOT_MODULE_TEST_PLAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trishok\Desktop\Prithvi MS Documents\Advace Software Techniques for Eng App\Project\ChildAlertSystem\Testing\ModuleTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70406237-314C-4435-A9DA-9F72617E6C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23C343-088B-4BEC-86D8-94011CD19968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
-  <si>
-    <t xml:space="preserve">CHILD ALERT SYSTEM
-AWS_IOT_MODULE_TEST
-Template Version:1.0
-                                                                     </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>History</t>
   </si>
@@ -146,45 +140,89 @@
 4. Save the Thing ARN for further process.</t>
   </si>
   <si>
-    <t>1. Create Policy in 
-AWS IoT Console
-2. Save the Policy ARN.</t>
-  </si>
-  <si>
     <t>AWS IoT POLICY ECE574_Policy Should be created and visible in AWS
 Console</t>
   </si>
   <si>
-    <t>Attach the Thing and Policy to Certificates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the Generated Certificate in.
- AWS IoT Console.
+    <t>Subscribe and Publish a message to the created Topic 
+using AWS MQTT Client</t>
+  </si>
+  <si>
+    <t>AWS IOT TOPIC ECE574_Project and Certificate (a407f17540af4eff9cea03e3cc1b63b8555b3bfb90bd61d32311944b8267349b) Should be created and visible in AWS
+Console.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Policy ECE574_Policy and Thing ECE574_Project should be Attached and visible In the Certificate Console. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Published message Should be visible on subscriptions under
+ Thing ECE574_Project. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHILD ALERT SYSTEM
+AWS_IOT_MODULE_TEST
+Template Version:1.0.1
+                                                                     </t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>AWS_IOT  Test Plan</t>
+  </si>
+  <si>
+    <t>Attaching the Thing and Policy to Certificates</t>
+  </si>
+  <si>
+    <t>Creation of SNS topic in Amazon SNS</t>
+  </si>
+  <si>
+    <t>The Topic Child Alert System should be created and visible in Amazon 
+SNS</t>
+  </si>
+  <si>
+    <t>Creation of SNS topic Subscription in Amazon SNS</t>
+  </si>
+  <si>
+    <t>The SNS Subscriptions should be created and visible under SNS topic</t>
+  </si>
+  <si>
+    <t>Publishing a message in SNS topic</t>
+  </si>
+  <si>
+    <t>1. Create Policy in  AWS IoT Console
+2. Save the Policy ARN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Generated Certificate in  AWS IoT Console.
 2. In Actions select Attach Thing.
 3.Then again In Actions select Attach Policy </t>
   </si>
   <si>
-    <t>Subscribe and Publish a message to the created Topic 
-using AWS MQTT Client</t>
-  </si>
-  <si>
-    <t>AWS IOT TOPIC ECE574_Project and Certificate (a407f17540af4eff9cea03e3cc1b63b8555b3bfb90bd61d32311944b8267349b) Should be created and visible in AWS
-Console.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Policy ECE574_Policy and Thing ECE574_Project should be Attached and visible In the Certificate Console. </t>
-  </si>
-  <si>
-    <t>1. In test Console Enter 
-the Topic ECE574_Project
-under Subscription Topic.  
+    <t>1. In test Console Enter  the Topic ECE574_Project under Subscription Topic.  
 2. Click on Scbscribe to Topic.
 3.Specify a topic and a message to publish with a QoS of 0.
 4.Click on Publish to Topic</t>
   </si>
   <si>
-    <t xml:space="preserve">The Published message Should be visible on subscriptions under
- Thing ECE574_Project. </t>
+    <t>1. Open Amazon SNS Console.
+2. Create a Topic ChildAlertSystem.
+3.copy and save the topic ARN</t>
+  </si>
+  <si>
+    <t>1.Open the created SNS  topic.
+2. Click on Create Subscription.
+3.Select the Protocol type and enter the endpoint(Mobile Numer).
+4.Click on Create Subscription.</t>
+  </si>
+  <si>
+    <t>1. click on Publish Message.
+2.Fill the Message Details and
+ Body and Attributes.
+3.Click on publish message.</t>
+  </si>
+  <si>
+    <t>The Published message should be visible in provided End Point Mobile.</t>
   </si>
 </sst>
 </file>
@@ -391,6 +429,361 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17462</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4030980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>502920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DCFD82-A59F-4BA3-9AED-EDE54D708113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11028362" y="7437120"/>
+          <a:ext cx="4013518" cy="2004060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1257300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4567720-AD99-4922-A53C-042E3F3EB4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11041380" y="3028628"/>
+          <a:ext cx="4023359" cy="1246192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1258265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2567940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B1E638-AAF8-4260-A720-55767B1499F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="4275785"/>
+          <a:ext cx="4000500" cy="1309675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1309675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89911AB0-10AD-4000-9B2B-F0D4761FD8FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11018520" y="6111240"/>
+          <a:ext cx="4053840" cy="1309675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1722120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B144FC80-E4CA-4658-86B5-E9601E2E43FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11018520" y="5611929"/>
+          <a:ext cx="4038600" cy="1718511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4061460</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1828800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AB3D14-0A4B-4F3F-90B4-7CD6AC3D8BA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11003280" y="10736308"/>
+          <a:ext cx="4046220" cy="1821452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>39673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4030980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1805940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B21C7AC2-A41C-467B-AFFA-ECCBA6D2F55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11041380" y="12620293"/>
+          <a:ext cx="4000500" cy="1766267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,7 +1052,7 @@
   <dimension ref="B2:M44"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="B3" sqref="B3:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -667,7 +1060,7 @@
     <row r="2" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1269,7 +1662,7 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1689,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1312,19 +1705,19 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -1332,24 +1725,34 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E6" s="5">
         <v>76653</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43783</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -1465,242 +1868,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="48.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
     <col min="4" max="4" width="59.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="58.88671875" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" style="1" customWidth="1"/>
     <col min="7" max="8" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="118.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" ht="204" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>4</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+    <row r="24" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>6</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+    <row r="25" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>7</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6">
+        <v>8</v>
+      </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1780,5 +2213,6 @@
   </sheetData>
   <autoFilter ref="A18:G27" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ChildAlertSystem/ModuleTesting/CHILDALERT_AWS_IOT_MODULE_TEST_PLAN.xlsx
+++ b/ChildAlertSystem/ModuleTesting/CHILDALERT_AWS_IOT_MODULE_TEST_PLAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trishok\Desktop\Prithvi MS Documents\Advace Software Techniques for Eng App\Project\ChildAlertSystem\Testing\ModuleTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23C343-088B-4BEC-86D8-94011CD19968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F849937E-A07F-45DC-B487-9CFAA41D0A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>History</t>
   </si>
@@ -159,12 +159,6 @@
  Thing ECE574_Project. </t>
   </si>
   <si>
-    <t xml:space="preserve">CHILD ALERT SYSTEM
-AWS_IOT_MODULE_TEST
-Template Version:1.0.1
-                                                                     </t>
-  </si>
-  <si>
     <t>1.0.1</t>
   </si>
   <si>
@@ -223,13 +217,104 @@
   </si>
   <si>
     <t>The Published message should be visible in provided End Point Mobile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>AWS_IOT RULE Test Plan</t>
+  </si>
+  <si>
+    <t>creation of rule in AWS_IOT console(Act)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHILD ALERT SYSTEM
+AWS_IOT_MODULE_TEST
+Template Version:1.0.2
+                                                                     </t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>1.Click on create
+2.  In create a Rule page enter the name and description for rule.
+3. Select the SQL version in rule query statement.
+4. Edit the rule query statement 
+according to conditions and IoT topic.
+5. Clik on add actionin set one or more actions. 
+6. select an action that must be performed.
+7. Configure the selected action.
+8. To configue the action provide SNS target on which the action to be performed.
+9. Select the message format.
+10. Create a role to grant AWS IoT access to perform the action.
+11. Add the action to the rule.
+12.Click on Create Rule</t>
+  </si>
+  <si>
+    <t>1. The rule name MyIoTRule and Description A Rule for AWS IoT 
+Getting Started should be entered.
+2.The SQL version 2016-03-23 should be selected.
+3. The rule query statement is edited and the IoT thing ECE574_Project 
+is added from which data should be reterived.
+4.The action Send a message as a SNS push notification is added.
+5. In order to perform the action The SNS target SNS Topic ChildAlertSystem is selected.
+6.Raw message format is selected.
+7. Role MySNSRole is created and granted acess to perform action.
+8. The selected action is added to the Rule.
+9. The rule with MyIoTRule  should be created and visible on AWS_IoT console.</t>
+  </si>
+  <si>
+    <t>Testing wether the message published to the Thing ECE574_Project is delivered to SNS subscribers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the MQTT client in AWS_IoT console and subscribe to the topic to which the message should publish.
+2. write a message and publish to the topic.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The message should be published on the Topic console and the 
+same message should be deliverd to the SNS Subscribers </t>
+  </si>
+  <si>
+    <t>Testing a connection  to AWS_IoT Thing ECE574_Project from computer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Conncetion Should happen if all the details given are correct.
+2. If connection happens it prints connetion success.
+3. The connection should be visible on Sucessful connections (Monitor) in AWS IoT console.
+</t>
+  </si>
+  <si>
+    <t>4. The message should be visible in ECE574_Project Thing on AWs IoT 
+Console.
+5.The Thing Should Transfer the Message to SNS Subscribers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Spyder Python IDE
+2. Open a new file.
+3. Import the required Libraries.
+4. Assign the IoT Protocol name and AWS IoT End Point which was saved while creating the IoT thing ECE574_Project to variables.
+5. Read the path of the files, Root CA Certificate, Thing Certificate and Private key which are downloaded and saved while creating the certificate.
+6. Write the topic name ECE574_Project.
+7. Give a proper Port to connect
+8. Print the message to send 
+9.Run the Code
+10. Try to connect.
+</t>
+  </si>
+  <si>
+    <t>1. Print the message to send 
+2.Run the Code</t>
+  </si>
+  <si>
+    <t>Sending  a message to AWS_IoT Thing ECE574_Project from computer.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -247,6 +332,12 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF002630"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -366,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,6 +476,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,6 +877,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4015740</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>982980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBE64C0-1202-47EA-BC71-23B361583B0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11346180" y="13936981"/>
+          <a:ext cx="4008120" cy="944879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4160520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9133A8DE-0E58-4315-B6AD-1761C5E6D84E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11353800" y="14966999"/>
+          <a:ext cx="4023360" cy="4143961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4023360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4023360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>922020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADD5E62-F7BC-4DE7-BC64-4256B741BE4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11292840" y="19164300"/>
+          <a:ext cx="4069080" cy="899160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>967740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3939540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1844040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E74F01A-3A42-424A-A7DC-657881114F9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11376660" y="20109180"/>
+          <a:ext cx="3901440" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1052,601 +1322,601 @@
   <dimension ref="B2:M44"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M44"/>
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="14"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="14"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="14"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="14"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="14"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="14"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="14"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="14"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="14"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="14"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="14"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="13"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14"/>
     </row>
     <row r="44" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="16"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1662,7 +1932,7 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1742,10 +2012,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E7" s="5">
         <v>43783</v>
@@ -1755,11 +2025,21 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43789</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
@@ -1868,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1963,6 +2243,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>26</v>
@@ -2012,7 +2297,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>35</v>
@@ -2030,10 +2315,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>38</v>
@@ -2054,7 +2339,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>39</v>
@@ -2072,13 +2357,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="3" t="s">
@@ -2093,13 +2378,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="3" t="s">
@@ -2109,18 +2394,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="3" t="s">
@@ -2130,43 +2415,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>8</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+    <row r="27" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>9</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+    <row r="28" spans="1:7" ht="316.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>10</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+    <row r="29" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>11</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="3"/>
     </row>
@@ -2213,6 +2532,7 @@
   </sheetData>
   <autoFilter ref="A18:G27" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ChildAlertSystem/ModuleTesting/CHILDALERT_AWS_IOT_MODULE_TEST_PLAN.xlsx
+++ b/ChildAlertSystem/ModuleTesting/CHILDALERT_AWS_IOT_MODULE_TEST_PLAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trishok\Desktop\Prithvi MS Documents\Advace Software Techniques for Eng App\Project\ChildAlertSystem\Testing\ModuleTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F849937E-A07F-45DC-B487-9CFAA41D0A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474638D-39C2-4698-BA42-2BE9C0543AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>History</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>Sending  a message to AWS_IoT Thing ECE574_Project from computer.</t>
+  </si>
+  <si>
+    <t>Conneccted to AWS_IoT Thing ECE574_Project from system server,
+the system server printed connection success.
+Connection visibled in AWS IoT Console</t>
+  </si>
+  <si>
+    <t>Message visibled on AWS IoT Thing and transferd the message to
+ SNS Subscribers</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2158,7 @@
   <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2188,10 +2197,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -2470,8 +2479,15 @@
       <c r="D28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
@@ -2486,8 +2502,15 @@
       <c r="D29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
